--- a/biology/Zoologie/Armaniidae/Armaniidae.xlsx
+++ b/biology/Zoologie/Armaniidae/Armaniidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Armaniinae
 Les Armaniidae ou Armaniinae sont une famille éteinte d'insectes hyménoptères de la famille des formicidés (fourmis) qui vivait au Crétacé et dont on a retrouvé des traces en Afrique et en Asie.
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (8 mars 2022)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (8 mars 2022) :
 genre † Armania Dlussky, 1983
 genre † Baikuris Dlussky, 1987
 genre † Boltonimecia Borysenko, 2017
@@ -526,7 +540,7 @@
 genre † Sphecomyrma Wilson &amp; Brown, 1967
 genre † Sphecomyrmodes Engel &amp; Grimaldi, 2005
 genre † Zigrasimecia Barden &amp; Grimaldi, 2013
-Selon ITIS      (8 mars 2022)[3] :
+Selon ITIS      (8 mars 2022) :
 genre † Archaeopone Dlussky, 1975
 genre † Armania Dlussky, 1983
 genre † Armaniella Dlussky, 1983
